--- a/Data/g19.9.xlsx
+++ b/Data/g19.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0099F581-4DDA-495D-B9C7-734092AAA1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EBD3FC-8642-4E0A-B802-9120E7C90E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D3" s="3">
         <v>5.0894038611610997</v>
@@ -475,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="D4" s="3">
         <v>6.648580843587192</v>
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D6" s="3">
         <v>12.74527651760469</v>
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="D7" s="3">
         <v>12.046031405904543</v>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D9" s="3">
         <v>12.540843316417996</v>
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="D10" s="3">
         <v>12.150350387803327</v>

--- a/Data/g19.9.xlsx
+++ b/Data/g19.9.xlsx
@@ -1,87 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EBD3FC-8642-4E0A-B802-9120E7C90E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
-  <si>
-    <t>Região</t>
-  </si>
-  <si>
-    <t>Variável</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Nordeste</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Taxa de mortes no trânsito ou em decorrência dele</t>
-  </si>
-  <si>
-    <t>Posição relativamente às demais UF</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,38 +45,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -192,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -227,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,172 +420,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6.2000574681189837</v>
-      </c>
-      <c r="E2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Região</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Posição relativamente às demais UF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8.642518294084535</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6.787318032003562</v>
+      </c>
+      <c r="E3" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5.0894038611610997</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45291</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6.648580843587192</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D5" s="3">
-        <v>12.011255526996255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D6" s="3">
-        <v>12.74527651760469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45291</v>
-      </c>
-      <c r="D7" s="3">
-        <v>12.046031405904543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3">
-        <v>12.306539375141227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="3">
-        <v>12.540843316417996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45291</v>
-      </c>
-      <c r="D10" s="3">
-        <v>12.150350387803327</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6.561074097603443</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5.42985442560285</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7.149308327043752</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.081444196481092</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11.88477605951319</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13.06810971384047</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>12.97061422219388</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>13.27829682255956</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>13.00804676859338</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.409663088455992</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>12.09809263243967</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>12.35486075846095</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>12.72328892408334</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>13.62489701079281</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12.98225465333295</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3.144532686151991</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/g19.9.xlsx
+++ b/Data/g19.9.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,14 +441,14 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Variável</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
@@ -457,230 +457,253 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Posição relativamente às demais UF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Faltam dados para todos os Estados</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-01-2019</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.642518294084535</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20</v>
+        <v>12.27625651031428</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-01-2020</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.787318032003562</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24</v>
+        <v>12.52304933006067</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.561074097603443</v>
-      </c>
-      <c r="E4" t="n">
-        <v>24</v>
+        <v>13.27670473698547</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-01-2022</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.42985442560285</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
+        <v>12.69201681162853</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01-01-2023</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.149308327043752</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22</v>
+        <v>11.53039191349197</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01-01-2024</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.081444196481092</v>
-      </c>
-      <c r="E7" t="n">
-        <v>18</v>
+        <v>11.78784134978572</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-01-2019</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.88477605951319</v>
+        <v>12.00969349258483</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01-01-2020</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.06810971384047</v>
+        <v>12.7394625539509</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.97061422219388</v>
+        <v>12.13856842934951</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01-01-2022</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.27829682255956</v>
+        <v>13.66109138775762</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -690,18 +713,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01-01-2023</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.00804676859338</v>
+        <v>15.41568530816448</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -711,144 +737,473 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01-01-2024</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.409663088455992</v>
+        <v>15.1073191183604</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01-01-2019</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.09809263243967</v>
+        <v>12.69073266158723</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01-01-2020</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12.35486075846095</v>
+        <v>13.50488115131979</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.72328892408334</v>
+        <v>11.40568190793159</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01-01-2022</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.62489701079281</v>
+        <v>12.47263083599161</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01-01-2023</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12.98225465333295</v>
+        <v>12.30965968229688</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01-01-2024</t>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.144532686151991</v>
+        <v>12.54394094614893</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12.258499005796</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13.67841274721858</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>15.33841275398043</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>12.47132489276449</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10.1007147584733</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>11.499762104158</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>8.308314143012621</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>6.468216048765174</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>6.200057468118876</v>
+      </c>
+      <c r="E28" t="n">
+        <v>24</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5.089403861161063</v>
+      </c>
+      <c r="E29" t="n">
+        <v>26</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>6.648580843587086</v>
+      </c>
+      <c r="E30" t="n">
+        <v>23</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8.143716976183596</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g19.9.xlsx
+++ b/Data/g19.9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.27625651031428</v>
+        <v>12.72503277584889</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.52304933006067</v>
+        <v>12.97489130555118</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
@@ -530,11 +530,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.27670473698547</v>
+        <v>13.68232552634555</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -554,11 +554,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.69201681162853</v>
+        <v>13.11379688250342</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -578,11 +578,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.53039191349197</v>
+        <v>11.94262203013007</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.78784134978572</v>
+        <v>11.79791843848013</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.00969349258483</v>
+        <v>12.19148357379749</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.7394625539509</v>
+        <v>12.75457740723266</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.13856842934951</v>
+        <v>12.14424902108152</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.66109138775762</v>
+        <v>13.93153959937777</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -708,12 +708,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -722,11 +722,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15.41568530816448</v>
+        <v>7.183472099432135</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -737,7 +737,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15.1073191183604</v>
+        <v>16.71215007526446</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
@@ -761,7 +761,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.69073266158723</v>
+        <v>16.45884553085288</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
@@ -785,7 +785,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.50488115131979</v>
+        <v>13.89967984937273</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -809,7 +809,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -818,11 +818,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11.40568190793159</v>
+        <v>14.76660569953508</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -833,7 +833,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12.47263083599161</v>
+        <v>12.63533242853311</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
@@ -857,7 +857,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12.30965968229688</v>
+        <v>12.47263083599161</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
@@ -881,7 +881,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12.54394094614893</v>
+        <v>12.44979916779812</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
@@ -905,7 +905,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12.258499005796</v>
+        <v>12.58606062940625</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
@@ -929,7 +929,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13.67841274721858</v>
+        <v>12.20043826255992</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
@@ -948,12 +948,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -962,24 +962,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15.33841275398043</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9</v>
-      </c>
+        <v>13.78132210227987</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -988,13 +986,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12.47132489276449</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12</v>
-      </c>
+        <v>7.278363804704043</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1005,7 +1001,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1014,10 +1010,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.1007147584733</v>
+        <v>15.33841275398043</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -1031,7 +1027,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1040,10 +1036,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11.499762104158</v>
+        <v>12.47132489276449</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1057,7 +1053,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1066,13 +1062,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8.308314143012621</v>
+        <v>10.1007147584733</v>
       </c>
       <c r="E26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1083,7 +1079,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1092,10 +1088,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6.468216048765174</v>
+        <v>11.499762104158</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1109,7 +1105,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1118,10 +1114,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6.200057468118876</v>
+        <v>8.308314143012621</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1135,7 +1131,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1144,10 +1140,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5.089403861161063</v>
+        <v>6.468216048765174</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1161,7 +1157,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1170,10 +1166,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6.648580843587086</v>
+        <v>6.200057468118876</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1187,21 +1183,99 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5.089403861161063</v>
+      </c>
+      <c r="E31" t="n">
+        <v>26</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>6.648580843587086</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>8.143716976183596</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E33" t="n">
         <v>21</v>
       </c>
-      <c r="F31" t="b">
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3.648542531640742</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25</v>
+      </c>
+      <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/g19.9.xlsx
+++ b/Data/g19.9.xlsx
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.75457740723266</v>
+        <v>13.25960146226672</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.14424902108152</v>
+        <v>12.12331036919332</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.93153959937777</v>
+        <v>13.84082545764194</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7.183472099432135</v>
+        <v>7.210883324273421</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12.58606062940625</v>
+        <v>14.10113279450843</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12.20043826255992</v>
+        <v>12.14707767763526</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13.78132210227987</v>
+        <v>13.50917967707238</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">

--- a/Data/g19.9.xlsx
+++ b/Data/g19.9.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.72503277584889</v>
+        <v>12.73287554584524</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.11379688250342</v>
+        <v>13.10014696707147</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.94262203013007</v>
+        <v>11.94223451277554</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.79791843848013</v>
+        <v>11.76881496409633</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.19148357379749</v>
+        <v>12.10466695575146</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.25960146226672</v>
+        <v>12.74924934636568</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.12331036919332</v>
+        <v>12.09431389892419</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.84082545764194</v>
+        <v>13.82986703080613</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7.210883324273421</v>
+        <v>8.675532766104695</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16.71215007526446</v>
+        <v>16.73480696636505</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14.76660569953508</v>
+        <v>14.72565595323923</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12.63533242853311</v>
+        <v>12.63416987646953</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12.47263083599161</v>
+        <v>12.4691647775766</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12.44979916779812</v>
+        <v>12.47276728182001</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14.10113279450843</v>
+        <v>12.57007644680532</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13.50917967707238</v>
+        <v>13.52047189388596</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7.278363804704043</v>
+        <v>9.583461848945253</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.648542531640742</v>
+        <v>4.560678164550927</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>

--- a/Data/g19.9.xlsx
+++ b/Data/g19.9.xlsx
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.10014696707147</v>
+        <v>13.11379688250342</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.10466695575146</v>
+        <v>12.0977543223817</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.09431389892419</v>
+        <v>12.1377771318208</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.82986703080613</v>
+        <v>13.8307044918256</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8.675532766104695</v>
+        <v>9.474718372887331</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14.72565595323923</v>
+        <v>14.76660569953508</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12.14707767763526</v>
+        <v>12.27746737632509</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13.52047189388596</v>
+        <v>13.5652723062943</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9.583461848945253</v>
+        <v>9.496794319864035</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.560678164550927</v>
+        <v>5.182588823353326</v>
       </c>
       <c r="E34" t="n">
         <v>23</v>

--- a/Data/g19.9.xlsx
+++ b/Data/g19.9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>Posição relativamente às demais UF</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Faltam dados para todos os Estados</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,12 +477,9 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.73287554584524</v>
+        <v>19.5367037911304</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -506,12 +498,9 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.97489130555118</v>
+        <v>18.7691365547267</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,12 +519,9 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.68232552634555</v>
+        <v>17.75241147846269</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -554,12 +540,9 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.11379688250342</v>
+        <v>16.28100354585489</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -578,12 +561,9 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.94223451277554</v>
+        <v>15.8148072839542</v>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -602,12 +582,9 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.76881496409633</v>
+        <v>16.1193401823764</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -626,12 +603,9 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.0977543223817</v>
+        <v>16.67367574713436</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -650,12 +624,9 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.74924934636568</v>
+        <v>16.54723816555322</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -674,12 +645,9 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.1377771318208</v>
+        <v>16.97629758730712</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -698,22 +666,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.8307044918256</v>
+        <v>17.67162353660616</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -722,12 +687,9 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.474718372887331</v>
+        <v>22.34782353990431</v>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -737,7 +699,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -746,12 +708,9 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16.73480696636505</v>
+        <v>21.72884698728347</v>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -761,7 +720,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -770,12 +729,9 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16.45884553085288</v>
+        <v>19.93727375877596</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -785,7 +741,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -794,12 +750,9 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.89967984937273</v>
+        <v>18.6593769057677</v>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -809,7 +762,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -818,12 +771,9 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14.76660569953508</v>
+        <v>17.92702368561801</v>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -833,7 +783,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -842,12 +792,9 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12.63416987646953</v>
+        <v>18.39897530445306</v>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -857,7 +804,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -866,12 +813,9 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12.4691647775766</v>
+        <v>18.6127220282535</v>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -881,7 +825,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -890,12 +834,9 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12.47276728182001</v>
+        <v>18.31537882657421</v>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -905,7 +846,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -914,12 +855,9 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12.57007644680532</v>
+        <v>19.71373812688735</v>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -929,7 +867,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -938,22 +876,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12.27746737632509</v>
+        <v>21.52258603851626</v>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -962,22 +897,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13.5652723062943</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="b">
-        <v>0</v>
+        <v>25.89068540205256</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -986,11 +920,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9.496794319864035</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="b">
-        <v>0</v>
+        <v>21.60748792710043</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1001,7 +934,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1010,13 +943,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15.33841275398043</v>
+        <v>18.75518027117731</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1027,7 +957,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1036,13 +966,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12.47132489276449</v>
+        <v>17.87103043104207</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -1053,7 +980,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1062,13 +989,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10.1007147584733</v>
+        <v>17.84678534778923</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -1079,7 +1003,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1088,14 +1012,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>11.499762104158</v>
+        <v>18.49865452232216</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1105,7 +1026,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1114,13 +1035,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8.308314143012621</v>
+        <v>18.6760161540917</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1131,7 +1049,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1140,13 +1058,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6.468216048765174</v>
+        <v>18.64892907205304</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1157,7 +1072,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1166,13 +1081,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6.200057468118876</v>
+        <v>20.33309465318489</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1183,7 +1095,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1192,91 +1104,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5.089403861161063</v>
+        <v>24.57359573685214</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>6.648580843587086</v>
-      </c>
-      <c r="E32" t="n">
-        <v>23</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>8.143716976183596</v>
-      </c>
-      <c r="E33" t="n">
-        <v>21</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Morte no trânsito ou em decorrência dele (exceto homicídio doloso)</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>5.182588823353326</v>
-      </c>
-      <c r="E34" t="n">
-        <v>23</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
